--- a/November.xlsx
+++ b/November.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>Potol</t>
+  </si>
+  <si>
+    <t>piag</t>
   </si>
 </sst>
 </file>
@@ -391,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +452,12 @@
       <c r="D2">
         <v>22</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -487,6 +505,30 @@
       </c>
       <c r="B8">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/November.xlsx
+++ b/November.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>piag</t>
+  </si>
+  <si>
+    <t>bazer</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +469,15 @@
       <c r="B3">
         <v>30</v>
       </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>600</v>
+      </c>
+      <c r="E3">
+        <v>290</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/November.xlsx
+++ b/November.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t>bazer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borboti </t>
+  </si>
+  <si>
+    <t>morich+vim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soba </t>
+  </si>
+  <si>
+    <t>potol +Shak</t>
+  </si>
+  <si>
+    <t>handwash</t>
   </si>
 </sst>
 </file>
@@ -406,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +490,10 @@
       <c r="D3">
         <v>600</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
         <v>290</v>
       </c>
     </row>
@@ -486,6 +504,18 @@
       <c r="B4">
         <v>60</v>
       </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -494,6 +524,12 @@
       <c r="B5">
         <v>50</v>
       </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>450</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -541,6 +577,30 @@
       </c>
       <c r="B11">
         <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/November.xlsx
+++ b/November.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>handwash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chal </t>
+  </si>
+  <si>
+    <t>alu +dim</t>
   </si>
 </sst>
 </file>
@@ -530,6 +536,12 @@
       <c r="D5">
         <v>450</v>
       </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -537,6 +549,12 @@
       </c>
       <c r="B6">
         <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">

--- a/November.xlsx
+++ b/November.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>alu +dim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">patakopi </t>
+  </si>
+  <si>
+    <t>shosa</t>
+  </si>
+  <si>
+    <t>shim</t>
+  </si>
+  <si>
+    <t>morich+tometo+ begun</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +562,12 @@
       <c r="B6">
         <v>25</v>
       </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
@@ -564,6 +582,12 @@
       <c r="B7">
         <v>15</v>
       </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -572,6 +596,12 @@
       <c r="B8">
         <v>20</v>
       </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -580,6 +610,12 @@
       <c r="B9">
         <v>315</v>
       </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -587,6 +623,12 @@
       </c>
       <c r="B10">
         <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">

--- a/November.xlsx
+++ b/November.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>morich+tometo+ begun</t>
+  </si>
+  <si>
+    <t>lobon</t>
+  </si>
+  <si>
+    <t>chal</t>
+  </si>
+  <si>
+    <t>mas</t>
   </si>
 </sst>
 </file>
@@ -439,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,6 +591,12 @@
       <c r="B7">
         <v>15</v>
       </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
@@ -596,6 +611,12 @@
       <c r="B8">
         <v>20</v>
       </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
@@ -661,6 +682,36 @@
       </c>
       <c r="B14">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>SUM(B2:B19)</f>
+        <v>1240</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D2:D19)</f>
+        <v>1277</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F2:F19)</f>
+        <v>830</v>
       </c>
     </row>
   </sheetData>

--- a/November.xlsx
+++ b/November.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t xml:space="preserve">Pias vai </t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>mas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dal </t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,6 +662,12 @@
       <c r="B11">
         <v>200</v>
       </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>170</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -711,7 +720,7 @@
       </c>
       <c r="F20">
         <f>SUM(F2:F19)</f>
-        <v>830</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
